--- a/biology/Botanique/Lilium_amabile/Lilium_amabile.xlsx
+++ b/biology/Botanique/Lilium_amabile/Lilium_amabile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium amabile est une espèce de plantes à fleurs de la famille des Liliaceae et du genre Lilium. L'épithète spécifique amabile vient du latin ; il signifie « adorable ».
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce Lys est une plante vivace bulbeuse haute de 40 à 80 cm. L'ampoule mesure de 2,5 à 3 cm de diamètre. Les fleurs sont solitaires ou en grappe de trois. Les sépales et les pétales sont rouges, parfois rouge-orangés ou jaunes[1]. La plante a été décrite comme ayant une désagréable odeur de pourriture[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce Lys est une plante vivace bulbeuse haute de 40 à 80 cm. L'ampoule mesure de 2,5 à 3 cm de diamètre. Les fleurs sont solitaires ou en grappe de trois. Les sépales et les pétales sont rouges, parfois rouge-orangés ou jaunes. La plante a été décrite comme ayant une désagréable odeur de pourriture. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce Lys est originaire de la province chinoise du Liaoning et de la Corée[1].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce Lys est originaire de la province chinoise du Liaoning et de la Corée.  
 </t>
         </is>
       </c>
